--- a/Input/testdata.xlsx
+++ b/Input/testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sathishkumar\eclipse-workspace\besantporurselenium\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF89A58-4800-4FAC-9086-0560E2A09A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C49613B-E55F-4A24-8653-CACA3081E5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4596" yWindow="0" windowWidth="18444" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <t>kumar.sathish189@gmail.com</t>
   </si>
   <si>
-    <t>test@123</t>
+    <t>Admin@123</t>
   </si>
 </sst>
 </file>
@@ -362,7 +362,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B1" sqref="B1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Input/testdata.xlsx
+++ b/Input/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sathishkumar\eclipse-workspace\besantporurselenium\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C49613B-E55F-4A24-8653-CACA3081E5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDF6CC8-89FA-425D-A884-E005457E9AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4596" yWindow="0" windowWidth="18444" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <t>kumar.sathish189@gmail.com</t>
   </si>
   <si>
-    <t>Admin@123</t>
+    <t>TestA123</t>
   </si>
 </sst>
 </file>

--- a/Input/testdata.xlsx
+++ b/Input/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sathishkumar\eclipse-workspace\besantporurselenium\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDF6CC8-89FA-425D-A884-E005457E9AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3BD614-CFFC-46B2-9F57-DBD5558327A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4596" yWindow="0" windowWidth="18444" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <t>kumar.sathish189@gmail.com</t>
   </si>
   <si>
-    <t>TestA123</t>
+    <t>Admin@123</t>
   </si>
 </sst>
 </file>

--- a/Input/testdata.xlsx
+++ b/Input/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sathishkumar\eclipse-workspace\besantporurselenium\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3BD614-CFFC-46B2-9F57-DBD5558327A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BC768B-1083-4269-951F-0D4514D56918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4596" yWindow="0" windowWidth="18444" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <t>kumar.sathish189@gmail.com</t>
   </si>
   <si>
-    <t>Admin@123</t>
+    <t>Test</t>
   </si>
 </sst>
 </file>
